--- a/medicine/Enfance/Fredrik_Skagen/Fredrik_Skagen.xlsx
+++ b/medicine/Enfance/Fredrik_Skagen/Fredrik_Skagen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fredrik Skagen, né le 30 décembre 1936 à Trondheim dans le comté de Sør-Trøndelag et mort le 20 juin 2017 dans la même ville[réf. nécessaire], est un écrivain et scénariste norvégien, auteur de roman policier et d'ouvrages de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fredrik Skagen naît à Trondheim dans le comté de Sør-Trøndelag. Il travaille comme bibliothécaire avant de devenir romancier. Il est notamment connu pour ses récits policiers et ses ouvrages de fictions. Il a également écrit quelques histoires à destination de l'enfance et de la jeunesse et des pièces radiophoniques. Il est le scénariste de la série télévisée policière norvégienne God natt, elskede (2009).
 Son roman policier Blackout (1998) est traduit en français sous le même titre chez Gaïa Éditions en 2002 dans la collection Polar.
@@ -545,7 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans policiers
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ulvene (1978)
 Forræderen (1979)
 Kortslutning (1980)
@@ -567,11 +587,81 @@
 Blitz (2001)
 Fri som fuglen (2002)
 God natt, elskede (2007)
-Romans pour l'enfance et la jeunesse
-Pelle Maradona (1990)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fredrik_Skagen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fredrik_Skagen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans pour l'enfance et la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pelle Maradona (1990)
 Otto og røverne (1992)
-En tyv i natten (1993)
-Autres romans et essais
+En tyv i natten (1993)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fredrik_Skagen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fredrik_Skagen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres romans et essais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Jakten etter Auriga (1968)
 Jeg vet en deilig have (1970)
 Papirkrigen (1973)
@@ -585,63 +675,73 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Fredrik_Skagen</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fredrik_Skagen</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Comme scénariste
-Série télévisée
-2009 : God natt, elskede</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2009 : God natt, elskede</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Fredrik_Skagen</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fredrik_Skagen</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions notables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix Riverton 1980 pour Kortslutning.
 Prix Cappelen 1986.
